--- a/Bin_data/Turkish/Turkish72.xlsx
+++ b/Bin_data/Turkish/Turkish72.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Mol WT</t>
-  </si>
-  <si>
-    <t>Unnamed: 57</t>
-  </si>
-  <si>
-    <t>Unnamed: 58</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>RF</t>
   </si>
@@ -383,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -558,17 +549,8 @@
       <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>0.03</v>
       </c>
@@ -737,17 +719,8 @@
       <c r="BD2">
         <v>0</v>
       </c>
-      <c r="BE2">
-        <v>6589.465561370382</v>
-      </c>
-      <c r="BF2">
-        <v>54</v>
-      </c>
-      <c r="BG2">
-        <v>55</v>
-      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>0.06</v>
       </c>
@@ -916,17 +889,8 @@
       <c r="BD3">
         <v>0</v>
       </c>
-      <c r="BE3">
-        <v>3572.399425464723</v>
-      </c>
-      <c r="BF3">
-        <v>0.6666626476800001</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>0.09</v>
       </c>
@@ -1095,17 +1059,8 @@
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BE4">
-        <v>1671.586480964718</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>0.12</v>
       </c>
@@ -1274,17 +1229,8 @@
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BE5">
-        <v>1174.191171964799</v>
-      </c>
-      <c r="BF5">
-        <v>0.179704254</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>0.15</v>
       </c>
@@ -1453,17 +1399,8 @@
       <c r="BD6">
         <v>0</v>
       </c>
-      <c r="BE6">
-        <v>752.5006905230061</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>0.18</v>
       </c>
@@ -1632,17 +1569,8 @@
       <c r="BD7">
         <v>0.07020484176000001</v>
       </c>
-      <c r="BE7">
-        <v>575.6621623617259</v>
-      </c>
-      <c r="BF7">
-        <v>0.07514370072</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>0.21</v>
       </c>
@@ -1811,17 +1739,8 @@
       <c r="BD8">
         <v>0</v>
       </c>
-      <c r="BE8">
-        <v>449.9230320922666</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:56">
       <c r="A9" s="1">
         <v>0.24</v>
       </c>
@@ -1990,17 +1909,8 @@
       <c r="BD9">
         <v>0</v>
       </c>
-      <c r="BE9">
-        <v>401.6571735769238</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:56">
       <c r="A10" s="1">
         <v>0.27</v>
       </c>
@@ -2169,17 +2079,8 @@
       <c r="BD10">
         <v>0</v>
       </c>
-      <c r="BE10">
-        <v>672.6520258293406</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0.05488098048</v>
-      </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:56">
       <c r="A11" s="1">
         <v>0.3</v>
       </c>
@@ -2348,17 +2249,8 @@
       <c r="BD11">
         <v>0.19854563748</v>
       </c>
-      <c r="BE11">
-        <v>1306.291441409493</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:56">
       <c r="A12" s="1">
         <v>0.33</v>
       </c>
@@ -2527,17 +2419,8 @@
       <c r="BD12">
         <v>0</v>
       </c>
-      <c r="BE12">
-        <v>731.7702888501303</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:56">
       <c r="A13" s="1">
         <v>0.36</v>
       </c>
@@ -2706,17 +2589,8 @@
       <c r="BD13">
         <v>0</v>
       </c>
-      <c r="BE13">
-        <v>491.2584330469711</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:56">
       <c r="A14" s="1">
         <v>0.39</v>
       </c>
@@ -2885,17 +2759,8 @@
       <c r="BD14">
         <v>0.10536020388</v>
       </c>
-      <c r="BE14">
-        <v>314.766390590675</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:56">
       <c r="A15" s="1">
         <v>0.42</v>
       </c>
@@ -3064,17 +2929,8 @@
       <c r="BD15">
         <v>0.0841406136</v>
       </c>
-      <c r="BE15">
-        <v>681.6145733008294</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:56">
       <c r="A16" s="1">
         <v>0.45</v>
       </c>
@@ -3243,17 +3099,8 @@
       <c r="BD16">
         <v>0</v>
       </c>
-      <c r="BE16">
-        <v>358.494139247382</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:56">
       <c r="A17" s="1">
         <v>0.48</v>
       </c>
@@ -3422,17 +3269,8 @@
       <c r="BD17">
         <v>0</v>
       </c>
-      <c r="BE17">
-        <v>224.7820741617213</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:56">
       <c r="A18" s="1">
         <v>0.51</v>
       </c>
@@ -3601,17 +3439,8 @@
       <c r="BD18">
         <v>0</v>
       </c>
-      <c r="BE18">
-        <v>422.3990048230635</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:56">
       <c r="A19" s="1">
         <v>0.54</v>
       </c>
@@ -3780,17 +3609,8 @@
       <c r="BD19">
         <v>0.12898405668</v>
       </c>
-      <c r="BE19">
-        <v>338.0840720209256</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:56">
       <c r="A20" s="1">
         <v>0.57</v>
       </c>
@@ -3959,17 +3779,8 @@
       <c r="BD20">
         <v>0.09639388296000001</v>
       </c>
-      <c r="BE20">
-        <v>317.7277365396192</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:56">
       <c r="A21" s="1">
         <v>0.6</v>
       </c>
@@ -4138,17 +3949,8 @@
       <c r="BD21">
         <v>0.05084223324</v>
       </c>
-      <c r="BE21">
-        <v>90.82629592403379</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:56">
       <c r="A22" s="1">
         <v>0.63</v>
       </c>
@@ -4317,17 +4119,8 @@
       <c r="BD22">
         <v>0</v>
       </c>
-      <c r="BE22">
-        <v>230.0044847573286</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:56">
       <c r="A23" s="1">
         <v>0.6599999999999999</v>
       </c>
@@ -4496,17 +4289,8 @@
       <c r="BD23">
         <v>0</v>
       </c>
-      <c r="BE23">
-        <v>136.1876321029437</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:56">
       <c r="A24" s="1">
         <v>0.6899999999999999</v>
       </c>
@@ -4675,17 +4459,8 @@
       <c r="BD24">
         <v>0</v>
       </c>
-      <c r="BE24">
-        <v>287.7346279686535</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:56">
       <c r="A25" s="1">
         <v>0.72</v>
       </c>
@@ -4854,17 +4629,8 @@
       <c r="BD25">
         <v>0</v>
       </c>
-      <c r="BE25">
-        <v>273.326328172624</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:56">
       <c r="A26" s="1">
         <v>0.75</v>
       </c>
@@ -5033,17 +4799,8 @@
       <c r="BD26">
         <v>0</v>
       </c>
-      <c r="BE26">
-        <v>284.4960952309774</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:56">
       <c r="A27" s="1">
         <v>0.78</v>
       </c>
@@ -5212,17 +4969,8 @@
       <c r="BD27">
         <v>0</v>
       </c>
-      <c r="BE27">
-        <v>228.7954466690947</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:56">
       <c r="A28" s="1">
         <v>0.8099999999999999</v>
       </c>
@@ -5391,17 +5139,8 @@
       <c r="BD28">
         <v>0</v>
       </c>
-      <c r="BE28">
-        <v>86.33095435514241</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:56">
       <c r="A29" s="1">
         <v>0.84</v>
       </c>
@@ -5570,17 +5309,8 @@
       <c r="BD29">
         <v>0</v>
       </c>
-      <c r="BE29">
-        <v>248.8884637469553</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:56">
       <c r="A30" s="1">
         <v>0.87</v>
       </c>
@@ -5749,17 +5479,8 @@
       <c r="BD30">
         <v>0</v>
       </c>
-      <c r="BE30">
-        <v>316.342341363203</v>
-      </c>
-      <c r="BF30">
-        <v>0</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:56">
       <c r="A31" s="1">
         <v>0.8999999999999999</v>
       </c>
@@ -5928,17 +5649,8 @@
       <c r="BD31">
         <v>0</v>
       </c>
-      <c r="BE31">
-        <v>837.7320547501868</v>
-      </c>
-      <c r="BF31">
-        <v>0.41266662096</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:56">
       <c r="A32" s="1">
         <v>0.9299999999999999</v>
       </c>
@@ -6107,13 +5819,514 @@
       <c r="BD32">
         <v>1.37295228372</v>
       </c>
-      <c r="BE32">
-        <v>478.1575892021145</v>
-      </c>
-      <c r="BF32">
-        <v>0.11733604344</v>
-      </c>
-      <c r="BG32">
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Turkish/Turkish72.xlsx
+++ b/Bin_data/Turkish/Turkish72.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5819,6 +5819,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
